--- a/data/trans_orig/CONS_COL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en País Vasco</t>
+          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en Andalucia</t>
+          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en C.Valenciana</t>
+          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_COL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19660</t>
+          <t>20587</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>16877</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24115</t>
+          <t>24894</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9067</t>
+          <t>10951</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6920</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11860</t>
+          <t>14365</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>28726</t>
+          <t>31538</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>24592</t>
+          <t>26677</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>33344</t>
+          <t>36628</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>126150</t>
+          <t>142214</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>121695</t>
+          <t>137907</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>129190</t>
+          <t>145924</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,52%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>133824</t>
+          <t>157616</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>131031</t>
+          <t>154202</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>135971</t>
+          <t>160261</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>259975</t>
+          <t>299830</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>255357</t>
+          <t>294740</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>264109</t>
+          <t>304691</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>91,95%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10704</t>
+          <t>11505</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8311</t>
+          <t>9151</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13607</t>
+          <t>14665</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12003</t>
+          <t>12920</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9256</t>
+          <t>10287</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14974</t>
+          <t>15915</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>22707</t>
+          <t>24425</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>18938</t>
+          <t>20456</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>26663</t>
+          <t>28604</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>13,42%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>70468</t>
+          <t>78920</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67565</t>
+          <t>75760</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>72861</t>
+          <t>81274</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,24%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>97114</t>
+          <t>109748</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94143</t>
+          <t>106753</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>99861</t>
+          <t>112381</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>86,28%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>167582</t>
+          <t>188668</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>163626</t>
+          <t>184489</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>171351</t>
+          <t>192637</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>85,99%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,4%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38178</t>
+          <t>33250</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33435</t>
+          <t>29294</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43234</t>
+          <t>37635</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9016</t>
+          <t>9216</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6892</t>
+          <t>7146</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11431</t>
+          <t>11958</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>47194</t>
+          <t>42466</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>41650</t>
+          <t>37111</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>52721</t>
+          <t>46948</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>125678</t>
+          <t>120634</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>120622</t>
+          <t>116249</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>130421</t>
+          <t>124590</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>75,54%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>80,96%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54129</t>
+          <t>52401</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51714</t>
+          <t>49659</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56253</t>
+          <t>54471</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>179807</t>
+          <t>173035</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>174280</t>
+          <t>168553</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>185351</t>
+          <t>178390</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>81,65%</t>
+          <t>82,78%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30931</t>
+          <t>28425</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26665</t>
+          <t>24486</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35640</t>
+          <t>32524</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25580</t>
+          <t>24144</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21452</t>
+          <t>20225</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29775</t>
+          <t>28311</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>56512</t>
+          <t>52569</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>49905</t>
+          <t>47004</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>63066</t>
+          <t>58877</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>139158</t>
+          <t>141294</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>134449</t>
+          <t>137195</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>143424</t>
+          <t>145233</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>84,32%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>151603</t>
+          <t>158046</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>147408</t>
+          <t>153879</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>155731</t>
+          <t>161965</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>86,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>290759</t>
+          <t>299340</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>284205</t>
+          <t>293032</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>297366</t>
+          <t>304905</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>81,84%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>86,64%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12139</t>
+          <t>11989</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9569</t>
+          <t>9417</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15081</t>
+          <t>15220</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19886</t>
+          <t>19471</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16491</t>
+          <t>15905</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23731</t>
+          <t>23114</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>32025</t>
+          <t>31460</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>27911</t>
+          <t>26840</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>37437</t>
+          <t>36068</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>18,05%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64712</t>
+          <t>62462</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61770</t>
+          <t>59231</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67282</t>
+          <t>65034</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,2%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>80,38%</t>
+          <t>79,56%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>113046</t>
+          <t>105945</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>109201</t>
+          <t>102302</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>116441</t>
+          <t>109511</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>81,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>177758</t>
+          <t>168407</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>172346</t>
+          <t>163799</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>181872</t>
+          <t>173027</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>84,26%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>81,95%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>86,57%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>596</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20116</t>
+          <t>19655</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16970</t>
+          <t>16189</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24122</t>
+          <t>23166</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>20992</t>
+          <t>20250</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17434</t>
+          <t>16328</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>24732</t>
+          <t>23651</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>13,27%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44385</t>
+          <t>55007</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>42988</t>
+          <t>54020</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44945</t>
+          <t>55492</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>98161</t>
+          <t>102946</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>94155</t>
+          <t>99435</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>101307</t>
+          <t>106412</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>79,61%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>142546</t>
+          <t>157954</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>138806</t>
+          <t>154553</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>146104</t>
+          <t>161876</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>84,88%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>90,84%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>112488</t>
+          <t>106351</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>103929</t>
+          <t>97989</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>121111</t>
+          <t>114376</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>95668</t>
+          <t>96357</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>88218</t>
+          <t>88416</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>104026</t>
+          <t>104011</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>208156</t>
+          <t>202708</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>197220</t>
+          <t>191620</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>220785</t>
+          <t>214241</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>570551</t>
+          <t>600532</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>561928</t>
+          <t>592507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>579110</t>
+          <t>608894</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>83,82%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>86,14%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>647876</t>
+          <t>686702</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>639518</t>
+          <t>679048</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>655326</t>
+          <t>694643</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>87,13%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,01%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1218427</t>
+          <t>1287233</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1205798</t>
+          <t>1275700</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1229363</t>
+          <t>1298321</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>85,41%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>87,14%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30328</t>
+          <t>29876</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51960</t>
+          <t>50858</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26947</t>
+          <t>27330</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46655</t>
+          <t>45356</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>62875</t>
+          <t>62374</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>90007</t>
+          <t>90044</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,53%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>314723</t>
+          <t>315825</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>336355</t>
+          <t>336807</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>252246</t>
+          <t>253545</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>271954</t>
+          <t>271571</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>575577</t>
+          <t>575540</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>602709</t>
+          <t>603210</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>90,63%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31886</t>
+          <t>32273</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54062</t>
+          <t>53377</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18958</t>
+          <t>18601</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33069</t>
+          <t>32613</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>54471</t>
+          <t>52744</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>81761</t>
+          <t>80099</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,71%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>269985</t>
+          <t>270670</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>292161</t>
+          <t>291774</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,32%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>227012</t>
+          <t>227468</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>241123</t>
+          <t>241480</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>502367</t>
+          <t>504029</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>529657</t>
+          <t>531384</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>90,97%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10951</t>
+          <t>10381</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84309</t>
+          <t>85968</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11938</t>
+          <t>12169</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23498</t>
+          <t>23508</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>16159</t>
+          <t>20982</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>104870</t>
+          <t>103654</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>18,09%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>391115</t>
+          <t>389456</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>464473</t>
+          <t>465043</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>81,92%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74066</t>
+          <t>74056</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>85626</t>
+          <t>85395</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>468118</t>
+          <t>469334</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>556829</t>
+          <t>552006</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>96,34%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51700</t>
+          <t>52309</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78400</t>
+          <t>79988</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62645</t>
+          <t>62740</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>484801</t>
+          <t>489373</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>76,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>125696</t>
+          <t>125783</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>671575</t>
+          <t>663235</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>56,55%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>457755</t>
+          <t>456167</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>484455</t>
+          <t>483846</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>151837</t>
+          <t>147265</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>573993</t>
+          <t>573898</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>501218</t>
+          <t>509558</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1047097</t>
+          <t>1047010</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>42,74%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>89,27%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12809</t>
+          <t>12707</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28966</t>
+          <t>28830</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>38867</t>
+          <t>35131</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>81293</t>
+          <t>79590</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>56948</t>
+          <t>57528</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>101303</t>
+          <t>100884</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,88%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>182256</t>
+          <t>182392</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>198413</t>
+          <t>198515</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>342656</t>
+          <t>344359</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>385082</t>
+          <t>388818</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>533868</t>
+          <t>534287</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>578223</t>
+          <t>577643</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>90,94%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>465</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4949</t>
+          <t>4584</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>66147</t>
+          <t>64843</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>90627</t>
+          <t>90213</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>66426</t>
+          <t>65976</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>94312</t>
+          <t>93113</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,18%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>161812</t>
+          <t>162177</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166280</t>
+          <t>166296</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>399341</t>
+          <t>399755</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>423821</t>
+          <t>425125</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>562417</t>
+          <t>563616</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>590303</t>
+          <t>590753</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>89,95%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>139846</t>
+          <t>126874</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>242128</t>
+          <t>244599</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>276288</t>
+          <t>279701</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>962845</t>
+          <t>954661</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>460252</t>
+          <t>470157</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1221714</t>
+          <t>1286627</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>30,01%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1838164</t>
+          <t>1835693</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1940446</t>
+          <t>1953418</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>88,24%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1244256</t>
+          <t>1252440</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1930813</t>
+          <t>1927400</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>56,75%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3065679</t>
+          <t>3000766</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3827141</t>
+          <t>3817236</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>69,99%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,03%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_COL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20587</t>
+          <t>44273</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16877</t>
+          <t>33985</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24894</t>
+          <t>56596</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10951</t>
+          <t>39401</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8306</t>
+          <t>30360</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14365</t>
+          <t>50023</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>117</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>31538</t>
+          <t>83674</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>26677</t>
+          <t>69320</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>36628</t>
+          <t>100210</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>13,86%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>142214</t>
+          <t>351114</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>137907</t>
+          <t>338791</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>145924</t>
+          <t>361402</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>395</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>157616</t>
+          <t>288225</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>154202</t>
+          <t>277603</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>160261</t>
+          <t>297266</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>737</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>299830</t>
+          <t>639339</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>294740</t>
+          <t>622803</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>304691</t>
+          <t>653693</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>86,14%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>90,41%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11505</t>
+          <t>43646</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9151</t>
+          <t>33601</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14665</t>
+          <t>55308</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12920</t>
+          <t>27218</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10287</t>
+          <t>20204</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15915</t>
+          <t>35072</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>24425</t>
+          <t>70863</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>20456</t>
+          <t>56236</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28604</t>
+          <t>84917</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,45%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78920</t>
+          <t>300701</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75760</t>
+          <t>289039</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81274</t>
+          <t>310746</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,78%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>347</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>109748</t>
+          <t>259722</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>106753</t>
+          <t>251868</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>112381</t>
+          <t>266736</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,03%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>628</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>188668</t>
+          <t>560424</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>184489</t>
+          <t>546370</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>192637</t>
+          <t>575051</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>91,09%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33250</t>
+          <t>40169</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29294</t>
+          <t>30875</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37635</t>
+          <t>51200</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9216</t>
+          <t>19457</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7146</t>
+          <t>13738</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11958</t>
+          <t>26276</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>84</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>42466</t>
+          <t>59626</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>37111</t>
+          <t>47807</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>46948</t>
+          <t>72472</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>19,48%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>120634</t>
+          <t>220387</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>209356</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>124590</t>
+          <t>229681</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,39%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,54%</t>
+          <t>80,35%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52401</t>
+          <t>92029</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49659</t>
+          <t>85210</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54471</t>
+          <t>97748</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>82,55%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>76,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>340</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>173035</t>
+          <t>312417</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>168553</t>
+          <t>299571</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>178390</t>
+          <t>324236</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>80,29%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>78,21%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>82,78%</t>
+          <t>87,15%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28425</t>
+          <t>70358</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24486</t>
+          <t>56899</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32524</t>
+          <t>86073</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24144</t>
+          <t>50665</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20225</t>
+          <t>41113</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28311</t>
+          <t>62813</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>174</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>52569</t>
+          <t>121023</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>47004</t>
+          <t>103814</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>58877</t>
+          <t>139709</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>141294</t>
+          <t>539624</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137195</t>
+          <t>523909</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>145233</t>
+          <t>553083</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,57%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>583</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>158046</t>
+          <t>439488</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>153879</t>
+          <t>427340</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>161965</t>
+          <t>449040</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>299340</t>
+          <t>979112</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>293032</t>
+          <t>960426</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>304905</t>
+          <t>996321</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>86,64%</t>
+          <t>90,56%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,37 +2102,37 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11989</t>
+          <t>22359</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9417</t>
+          <t>14953</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15220</t>
+          <t>32106</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,67 +2142,67 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19471</t>
+          <t>70928</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15905</t>
+          <t>59948</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23114</t>
+          <t>83672</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>145</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>31460</t>
+          <t>93287</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>26840</t>
+          <t>78566</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>36068</t>
+          <t>109044</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62462</t>
+          <t>230982</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59231</t>
+          <t>221235</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65034</t>
+          <t>238388</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,9%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,56%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>467</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>105945</t>
+          <t>337091</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>102302</t>
+          <t>324347</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>109511</t>
+          <t>348071</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,57%</t>
+          <t>79,49%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,32%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>168407</t>
+          <t>568074</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>163799</t>
+          <t>552317</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>173027</t>
+          <t>582795</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>86,57%</t>
+          <t>88,12%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19655</t>
+          <t>84901</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16189</t>
+          <t>71484</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23166</t>
+          <t>98909</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>20250</t>
+          <t>86505</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>16328</t>
+          <t>72915</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>23651</t>
+          <t>102233</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>14,27%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55007</t>
+          <t>167893</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>54020</t>
+          <t>164869</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55492</t>
+          <t>169012</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>552</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>102946</t>
+          <t>461973</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>99435</t>
+          <t>447965</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>106412</t>
+          <t>475390</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>627</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>157954</t>
+          <t>629866</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>154553</t>
+          <t>614138</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>161876</t>
+          <t>643456</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>89,82%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>106351</t>
+          <t>222409</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>97989</t>
+          <t>197135</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>114376</t>
+          <t>251000</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>489</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>96357</t>
+          <t>292569</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>88416</t>
+          <t>268064</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>104011</t>
+          <t>319068</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>768</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>202708</t>
+          <t>514978</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>191620</t>
+          <t>478864</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>214241</t>
+          <t>551742</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>600532</t>
+          <t>1810701</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>592507</t>
+          <t>1782110</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>608894</t>
+          <t>1835975</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>83,82%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>86,14%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3820</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>686702</t>
+          <t>1878530</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>679048</t>
+          <t>1852031</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>694643</t>
+          <t>1903035</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>86,52%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>85,3%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7176</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1287233</t>
+          <t>3689231</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1275700</t>
+          <t>3652467</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1298321</t>
+          <t>3725345</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,14%</t>
+          <t>88,61%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39666</t>
+          <t>38460</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29876</t>
+          <t>30256</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50858</t>
+          <t>47545</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35801</t>
+          <t>22087</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27330</t>
+          <t>16078</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>45356</t>
+          <t>29595</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>75468</t>
+          <t>60547</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>62374</t>
+          <t>49822</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>90044</t>
+          <t>71974</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>327017</t>
+          <t>257063</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>315825</t>
+          <t>247978</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>336807</t>
+          <t>265267</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,18%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>83,91%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>425</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>263100</t>
+          <t>254613</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>253545</t>
+          <t>247105</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>271571</t>
+          <t>260622</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,83%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>860</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>590116</t>
+          <t>511675</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>575540</t>
+          <t>500248</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>603210</t>
+          <t>522400</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>91,29%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41878</t>
+          <t>30796</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32273</t>
+          <t>24444</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53377</t>
+          <t>39361</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25145</t>
+          <t>21161</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18601</t>
+          <t>15254</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32613</t>
+          <t>29124</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>110</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>67022</t>
+          <t>51958</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>52744</t>
+          <t>42678</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>80099</t>
+          <t>62246</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>282169</t>
+          <t>164976</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>270670</t>
+          <t>156411</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>291774</t>
+          <t>171328</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>79,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>354</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>234936</t>
+          <t>210818</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>227468</t>
+          <t>202855</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>241480</t>
+          <t>216725</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>631</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>517106</t>
+          <t>375792</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>504029</t>
+          <t>365504</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>531384</t>
+          <t>385072</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>85,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>90,02%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38418</t>
+          <t>19658</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10381</t>
+          <t>14196</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85968</t>
+          <t>25958</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17239</t>
+          <t>13103</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12169</t>
+          <t>8816</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23508</t>
+          <t>19419</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>55657</t>
+          <t>32761</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20982</t>
+          <t>25629</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>103654</t>
+          <t>41203</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -4172,37 +4172,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>437006</t>
+          <t>161213</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>389456</t>
+          <t>154913</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>465043</t>
+          <t>166675</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,92%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4212,67 +4212,67 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80325</t>
+          <t>69697</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74056</t>
+          <t>63381</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>85395</t>
+          <t>73984</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>82,33%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>426</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>517331</t>
+          <t>230911</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>469334</t>
+          <t>222469</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>552006</t>
+          <t>238043</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>84,37%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>90,28%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64669</t>
+          <t>47333</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52309</t>
+          <t>38496</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79988</t>
+          <t>58685</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>250242</t>
+          <t>34159</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62740</t>
+          <t>26737</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>489373</t>
+          <t>42992</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>76,87%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>171</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>314911</t>
+          <t>81492</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>125783</t>
+          <t>69658</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>663235</t>
+          <t>94459</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>471486</t>
+          <t>261100</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>456167</t>
+          <t>249748</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>483846</t>
+          <t>269937</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>485</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>386396</t>
+          <t>281804</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>147265</t>
+          <t>272971</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>573898</t>
+          <t>289226</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>60,69%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>857882</t>
+          <t>542904</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>509558</t>
+          <t>529937</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1047010</t>
+          <t>554738</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>73,15%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>88,84%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19821</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12707</t>
+          <t>12241</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28830</t>
+          <t>24260</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>62825</t>
+          <t>23892</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35131</t>
+          <t>17968</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>79590</t>
+          <t>32004</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>82646</t>
+          <t>41392</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>57528</t>
+          <t>33159</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>100884</t>
+          <t>50422</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>16,51%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>191401</t>
+          <t>132785</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>182392</t>
+          <t>126025</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>198515</t>
+          <t>138044</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>361124</t>
+          <t>131176</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>344359</t>
+          <t>123064</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>388818</t>
+          <t>137100</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>81,23%</t>
+          <t>79,36%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>442</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>552525</t>
+          <t>263962</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>534287</t>
+          <t>254932</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>577643</t>
+          <t>272195</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>83,49%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>89,14%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>711</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4584</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>77043</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>64843</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>90213</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>57,14%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>78599</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>65976</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>93113</t>
+          <t>7840</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>37,73%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>165205</t>
+          <t>8637</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>162177</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166296</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>66,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>412925</t>
+          <t>7956</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>399755</t>
+          <t>4901</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>425125</t>
+          <t>10258</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>69,58%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>578130</t>
+          <t>16593</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>563616</t>
+          <t>12942</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>590753</t>
+          <t>18884</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>90,87%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>206007</t>
+          <t>154458</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>126874</t>
+          <t>137928</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>244599</t>
+          <t>171338</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>233</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>468295</t>
+          <t>117880</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>279701</t>
+          <t>103477</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>954661</t>
+          <t>134421</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>576</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>674302</t>
+          <t>272338</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>470157</t>
+          <t>248645</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1286627</t>
+          <t>295659</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>13,35%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1874285</t>
+          <t>985773</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1835693</t>
+          <t>968893</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1953418</t>
+          <t>1002303</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,24%</t>
+          <t>84,97%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1738806</t>
+          <t>956065</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1252440</t>
+          <t>939524</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1927400</t>
+          <t>970468</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>56,75%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4063</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3613091</t>
+          <t>1941838</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3000766</t>
+          <t>1918517</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3817236</t>
+          <t>1965531</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>87,7%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>69,99%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>88,77%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38460</t>
+          <t>20587</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30256</t>
+          <t>16877</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47545</t>
+          <t>24894</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22087</t>
+          <t>10951</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16078</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29595</t>
+          <t>14365</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>171</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>60547</t>
+          <t>31538</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>49822</t>
+          <t>26677</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>71974</t>
+          <t>36628</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>257063</t>
+          <t>142214</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>247978</t>
+          <t>137907</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>265267</t>
+          <t>145924</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,91%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>820</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>254613</t>
+          <t>157616</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>247105</t>
+          <t>154202</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>260622</t>
+          <t>160261</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>1562</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>511675</t>
+          <t>299830</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>500248</t>
+          <t>294740</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>522400</t>
+          <t>304691</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>91,95%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30796</t>
+          <t>11505</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24444</t>
+          <t>9151</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39361</t>
+          <t>14665</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21161</t>
+          <t>12920</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15254</t>
+          <t>10287</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29124</t>
+          <t>15915</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>138</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>51958</t>
+          <t>24425</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>42678</t>
+          <t>20456</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>62246</t>
+          <t>28604</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>13,42%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>164976</t>
+          <t>78920</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>156411</t>
+          <t>75760</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>171328</t>
+          <t>81274</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>598</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>210818</t>
+          <t>109748</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>202855</t>
+          <t>106753</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>216725</t>
+          <t>112381</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>375792</t>
+          <t>188668</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>365504</t>
+          <t>184489</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>385072</t>
+          <t>192637</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>90,4%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19658</t>
+          <t>33250</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14196</t>
+          <t>29294</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25958</t>
+          <t>37635</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13103</t>
+          <t>9216</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8816</t>
+          <t>7146</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19419</t>
+          <t>11958</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>264</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>32761</t>
+          <t>42466</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>25629</t>
+          <t>37111</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41203</t>
+          <t>46948</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>716</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>161213</t>
+          <t>120634</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>154913</t>
+          <t>116249</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>166675</t>
+          <t>124590</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>75,54%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>80,96%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>309</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69697</t>
+          <t>52401</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63381</t>
+          <t>49659</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73984</t>
+          <t>54471</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>76,55%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>230911</t>
+          <t>173035</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>222469</t>
+          <t>168553</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>238043</t>
+          <t>178390</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>82,78%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47333</t>
+          <t>28425</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38496</t>
+          <t>24486</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58685</t>
+          <t>32524</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34159</t>
+          <t>24144</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26737</t>
+          <t>20225</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42992</t>
+          <t>28311</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>321</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>81492</t>
+          <t>52569</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>69658</t>
+          <t>47004</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>94459</t>
+          <t>58877</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>828</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>261100</t>
+          <t>141294</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>249748</t>
+          <t>137195</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>269937</t>
+          <t>145233</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>893</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>281804</t>
+          <t>158046</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>272971</t>
+          <t>153879</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>289226</t>
+          <t>161965</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>86,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>542904</t>
+          <t>299340</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>529937</t>
+          <t>293032</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>554738</t>
+          <t>304905</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>86,64%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>11989</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12241</t>
+          <t>9417</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24260</t>
+          <t>15220</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23892</t>
+          <t>19471</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17968</t>
+          <t>15905</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32004</t>
+          <t>23114</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>194</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>41392</t>
+          <t>31460</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>33159</t>
+          <t>26840</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>50422</t>
+          <t>36068</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>18,05%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>132785</t>
+          <t>62462</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>126025</t>
+          <t>59231</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>138044</t>
+          <t>65034</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>79,56%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>628</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>131176</t>
+          <t>105945</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>123064</t>
+          <t>102302</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>137100</t>
+          <t>109511</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,59%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>81,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,41%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>263962</t>
+          <t>168407</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>254932</t>
+          <t>163799</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>272195</t>
+          <t>173027</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>84,26%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>83,49%</t>
+          <t>81,95%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>86,57%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>596</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3134</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3478</t>
+          <t>19655</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>16189</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>23166</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>57,14%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>125</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4189</t>
+          <t>20250</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>16328</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>7840</t>
+          <t>23651</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>13,27%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8637</t>
+          <t>55007</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>54020</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55492</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>66,48%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>572</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7956</t>
+          <t>102946</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4901</t>
+          <t>99435</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>10258</t>
+          <t>106412</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>69,58%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>836</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>16593</t>
+          <t>157954</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>12942</t>
+          <t>154553</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>18884</t>
+          <t>161876</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>90,84%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>637</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>154458</t>
+          <t>106351</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>137928</t>
+          <t>97989</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>171338</t>
+          <t>114376</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>576</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>117880</t>
+          <t>96357</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>103477</t>
+          <t>88416</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>134421</t>
+          <t>104011</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>272338</t>
+          <t>202708</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>248645</t>
+          <t>191620</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>295659</t>
+          <t>214241</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>985773</t>
+          <t>600532</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>968893</t>
+          <t>592507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1002303</t>
+          <t>608894</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>84,97%</t>
+          <t>83,82%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>86,14%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>956065</t>
+          <t>686702</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>939524</t>
+          <t>679048</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>970468</t>
+          <t>694643</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>7176</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1941838</t>
+          <t>1287233</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1918517</t>
+          <t>1275700</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1965531</t>
+          <t>1298321</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>87,7%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>87,14%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
